--- a/Assets/GameMain/DataTables/xlsx/Dialogue.xlsx
+++ b/Assets/GameMain/DataTables/xlsx/Dialogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12990"/>
+    <workbookView windowWidth="28785" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
   <si>
     <t>#</t>
   </si>
@@ -190,34 +190,7 @@
     <t>105,106</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;color=#71d7e2&gt;“星际旅行综合征”&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>世纪困扰人类的一大疾病。</t>
-    </r>
+    <t>&lt;color=#71d7e2&gt;“星际旅行综合征”&lt;/color&gt;，22世纪困扰人类的一大疾病。</t>
   </si>
   <si>
     <t>长期在失重环境下的生活，会影响宇航员的大脑结构，甚至导致他们思维和运动能力的下降，这对于他们来说是非常危险的。</t>
@@ -280,6 +253,9 @@
     <t>正在切换频带……</t>
   </si>
   <si>
+    <t>……</t>
+  </si>
+  <si>
     <t>空置对话</t>
   </si>
   <si>
@@ -295,6 +271,9 @@
     <t>Mobius的任务日志已经更新，你可以去查看下一个任务的说明。</t>
   </si>
   <si>
+    <t>1_4.0</t>
+  </si>
+  <si>
     <t>准备好后，直接联系你的搭档。还有其他问题吗？</t>
   </si>
   <si>
@@ -382,9 +361,6 @@
     <t>希望下次收到你的好消息。</t>
   </si>
   <si>
-    <t>901,1,12</t>
-  </si>
-  <si>
     <t>宇航员No.6568</t>
   </si>
   <si>
@@ -394,7 +370,7 @@
     <t xml:space="preserve">.--. . .- -.-. . -....- </t>
   </si>
   <si>
-    <t>一条来自航行于遥远太空的招呼，有人在那儿吗？</t>
+    <t>一条来自遥远太空的招呼，有人在那儿吗？</t>
   </si>
   <si>
     <t>501,502</t>
@@ -406,7 +382,7 @@
     <t>联络员No.1421</t>
   </si>
   <si>
-    <t>你好</t>
+    <t>你、你好……</t>
   </si>
   <si>
     <t>2！13</t>
@@ -475,10 +451,10 @@
     <t>宇航员 灰木</t>
   </si>
   <si>
-    <t>不用这么客气，随意些。。</t>
-  </si>
-  <si>
-    <t>我刚结束了工作，正准备返回辰星空间站。。 </t>
+    <t>不用这么客气，随意些。</t>
+  </si>
+  <si>
+    <t>我刚结束了工作，正准备返回&lt;color=#c273e0&gt;辰星空间站&lt;/color&gt;。</t>
   </si>
   <si>
     <t>现在得需要你帮忙对飞船下达指令，确保它能够安全停靠那里。</t>
@@ -499,10 +475,7 @@
     <t>5！</t>
   </si>
   <si>
-    <t>接入飞船控制台</t>
-  </si>
-  <si>
-    <t>MiniGame,2</t>
+    <t>接入飞船控制台（跳转小游戏）</t>
   </si>
   <si>
     <t>对一个新人而言，你这次任务完成得不错。</t>
@@ -532,13 +505,13 @@
     <t>下一个任务是收集小行星带数据。</t>
   </si>
   <si>
-    <t>这类１级任务我非常有经验，每次都完成得很好！你就放心吧。</t>
-  </si>
-  <si>
-    <t>这么自信啊，那就期待你的下次表现了！</t>
-  </si>
-  <si>
-    <t>我要去和空间站里的其他人打招呼，晚点再联系。</t>
+    <t>原来是1级任务啊！我对这类任务很有经验，每次都完成得很好！你就放心吧。</t>
+  </si>
+  <si>
+    <t>喔，这么自信啊，那就期待你的下次表现了！</t>
+  </si>
+  <si>
+    <t>我得去和空间站里的其他人打招呼，晚点再联系啰。</t>
   </si>
   <si>
     <t>508</t>
@@ -547,22 +520,22 @@
     <t>8！</t>
   </si>
   <si>
-    <t>退出通讯室</t>
-  </si>
-  <si>
-    <t>901,0,1032</t>
-  </si>
-  <si>
-    <t>很自信啊！不过刚才执行任务前你怎么那么紧张？</t>
-  </si>
-  <si>
-    <t>下一个任务是收集小行星带数据，它比较简单。</t>
+    <t>返回ICA MessageBox</t>
+  </si>
+  <si>
+    <t>902,1,12</t>
+  </si>
+  <si>
+    <t>喔，很自信啊！</t>
+  </si>
+  <si>
+    <t>下一个任务是&lt;color=#c273e0&gt;收集小行星带数据&lt;/color&gt;，怎么样，可以吗？</t>
   </si>
   <si>
     <t>没问题，包在我身上！</t>
   </si>
   <si>
-    <t>哈，你让我想起我的老同事。</t>
+    <t>哈哈，你让我想起我以前的老同事。</t>
   </si>
   <si>
     <t>你以前的联络员搭档？</t>
@@ -571,32 +544,27 @@
     <t>是啊，不过……</t>
   </si>
   <si>
-    <t>算了，没什么，我先去和空间站里其他人打个招呼，晚点再联系。</t>
+    <t>算了，不说了，我先去和空间站的其他人打个招呼，晚点再联系。</t>
   </si>
   <si>
     <t>509</t>
   </si>
   <si>
     <t>9！</t>
-  </si>
-  <si>
-    <t>返回ICA MessageBox</t>
-  </si>
-  <si>
-    <t>902,0,1032</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,13 +580,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,38 +653,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,7 +684,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -691,40 +699,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,38 +723,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,7 +745,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,7 +754,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,13 +790,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,49 +874,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,49 +904,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,49 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,6 +951,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1017,17 +993,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,26 +1013,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,11 +1045,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,10 +1059,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,141 +1071,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1262,11 +1226,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1590,10 +1566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1604,1787 +1580,1806 @@
     <col min="5" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="75.125" customWidth="1"/>
     <col min="8" max="8" width="24.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <v>1001</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
         <v>101</v>
       </c>
-      <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
         <v>1002</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>1003</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
         <v>1003</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>1004</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
         <v>1004</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>1005</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
         <v>1005</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>1006</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
         <v>1006</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>1007</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
         <v>1007</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="3">
-        <v>2</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
         <v>1008</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>1009</v>
       </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
         <v>1009</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>1010</v>
       </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
         <v>1010</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <v>1011</v>
       </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
         <v>1011</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="3">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
         <v>1012</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <v>1013</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="3">
-        <v>2</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
         <v>1013</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <v>1014</v>
       </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
         <v>1014</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <v>1015</v>
       </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:11">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
         <v>1015</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="J19" s="4">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:11">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
         <v>1016</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="4">
         <v>1019</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="3">
-        <v>2</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="J20" s="4">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
         <v>1017</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <v>1022</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="J21" s="4">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
         <v>1018</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <v>1025</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="3">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3">
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
         <v>1019</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="4">
         <v>1020</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="3">
-        <v>2</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3">
+      <c r="J23" s="4">
+        <v>2</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4">
         <v>1020</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="4">
         <v>1021</v>
       </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3">
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>2</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4">
         <v>1021</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4" t="s">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="3">
-        <v>2</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3">
+      <c r="J25" s="4">
+        <v>2</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4">
         <v>1022</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="3" t="b">
+      <c r="F26" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="4">
         <v>1023</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3">
+      <c r="J26" s="4">
+        <v>2</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4">
         <v>1023</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="4">
         <v>1024</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="3">
-        <v>2</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3">
+      <c r="J27" s="4">
+        <v>2</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
         <v>1024</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="3">
-        <v>2</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3">
+      <c r="J28" s="4">
+        <v>2</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4">
         <v>1025</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="4">
         <v>1026</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="3">
-        <v>2</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3">
+      <c r="J29" s="4">
+        <v>2</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:11">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8">
         <v>1026</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:11">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4">
         <v>1027</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J30" s="3">
-        <v>2</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3">
-        <v>1027</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
         <v>4</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="3">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3">
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:11">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4">
         <v>1028</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="3">
-        <v>2</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3">
+      <c r="J32" s="4">
+        <v>2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4">
         <v>1029</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="3">
-        <v>1022</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="H33" s="4">
+        <v>5013</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="3">
-        <v>2</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3">
+      <c r="J33" s="4">
+        <v>2</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:12">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4">
         <v>1030</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="F34" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="3">
-        <v>2</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3">
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="4">
+        <v>2</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:11">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4">
         <v>1031</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="4">
         <v>4</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="F35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="3">
-        <v>2</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3">
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4">
         <v>1032</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="F36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="4">
         <v>1033</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="3">
-        <v>2</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3">
+      <c r="J36" s="4">
+        <v>2</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4">
         <v>1033</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="F37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="4">
         <v>1034</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J37" s="3">
-        <v>2</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3">
+      <c r="J37" s="4">
+        <v>2</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4">
         <v>1034</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J38" s="3">
-        <v>2</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3">
+      <c r="F38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="4">
+        <v>2</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4">
         <v>1035</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="F39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="4">
         <v>1040</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J39" s="3">
-        <v>2</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3">
+      <c r="J39" s="4">
+        <v>2</v>
+      </c>
+      <c r="K39" s="12">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4">
         <v>1036</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="C40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="F40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="4">
         <v>1043</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="3">
-        <v>2</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3">
+      <c r="J40" s="4">
+        <v>2</v>
+      </c>
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4">
         <v>1037</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="F41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="4">
         <v>1046</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J41" s="3">
-        <v>2</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3">
+      <c r="J41" s="4">
+        <v>2</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4">
         <v>1038</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="C42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="F42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="4">
         <v>1049</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="3">
-        <v>2</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3">
+      <c r="J42" s="4">
+        <v>2</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4">
         <v>1039</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="C43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="F43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="4">
         <v>1051</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="3">
-        <v>2</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
+      <c r="J43" s="4">
+        <v>2</v>
+      </c>
+      <c r="K43" s="12">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4">
         <v>1040</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="F44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="4">
         <v>1041</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J44" s="3">
-        <v>2</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="J44" s="4">
+        <v>2</v>
+      </c>
+      <c r="K44" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4">
         <v>1041</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="F45" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="4">
         <v>1042</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J45" s="3">
-        <v>2</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="J45" s="4">
+        <v>2</v>
+      </c>
+      <c r="K45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4">
         <v>1042</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3">
-        <v>2</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="F46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J46" s="4">
+        <v>2</v>
+      </c>
+      <c r="K46" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4">
         <v>1043</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="F47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="4">
         <v>1044</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J47" s="3">
-        <v>2</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="J47" s="4">
+        <v>2</v>
+      </c>
+      <c r="K47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4">
         <v>1044</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="F48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="4">
         <v>1045</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J48" s="3">
-        <v>2</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="J48" s="4">
+        <v>2</v>
+      </c>
+      <c r="K48" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4">
         <v>1045</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3">
-        <v>2</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="F49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J49" s="4">
+        <v>2</v>
+      </c>
+      <c r="K49" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4">
         <v>1046</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="F50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="4">
         <v>1047</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J50" s="3">
-        <v>2</v>
-      </c>
-      <c r="K50" s="3">
+      <c r="J50" s="4">
+        <v>2</v>
+      </c>
+      <c r="K50" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4">
         <v>1047</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="F51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="4">
         <v>1048</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J51" s="3">
-        <v>2</v>
-      </c>
-      <c r="K51" s="3">
+      <c r="J51" s="4">
+        <v>2</v>
+      </c>
+      <c r="K51" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4">
         <v>1048</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3">
-        <v>2</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="F52" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J52" s="4">
+        <v>2</v>
+      </c>
+      <c r="K52" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4">
         <v>1049</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="F53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H53" s="4">
         <v>1050</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J53" s="3">
-        <v>2</v>
-      </c>
-      <c r="K53" s="3">
+      <c r="J53" s="4">
+        <v>2</v>
+      </c>
+      <c r="K53" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4">
         <v>1050</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="F54" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J54" s="4">
+        <v>2</v>
+      </c>
+      <c r="K54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4">
         <v>1051</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H55" s="3">
+      <c r="F55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" s="4">
         <v>1052</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J55" s="3">
-        <v>2</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3">
+      <c r="J55" s="4">
+        <v>2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:11">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8">
         <v>1052</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3">
-        <v>9</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J56" s="3">
-        <v>2</v>
-      </c>
-      <c r="K56" s="3">
+      <c r="F56" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
+      <c r="K56" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1"/>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>5001</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H57" s="3">
+      <c r="F57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="4">
         <v>5002</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="4">
         <v>2</v>
       </c>
       <c r="K57" s="1">
@@ -3393,126 +3388,123 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1"/>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>5002</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4">
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="F58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58" s="4">
         <v>5003</v>
       </c>
-      <c r="I58" s="4">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
         <v>2</v>
       </c>
       <c r="K58" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1"/>
-      <c r="B59" s="3">
+    <row r="59" s="1" customFormat="1" spans="2:11">
+      <c r="B59" s="4">
         <v>5003</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4">
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="4" t="s">
+      <c r="F59" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J59" s="3">
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J59" s="4">
         <v>2</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
-      <c r="B60" s="3">
+    <row r="60" s="1" customFormat="1" spans="2:11">
+      <c r="B60" s="4">
         <v>5004</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="C60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H60" s="3">
+      <c r="F60" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="4">
+        <v>5006</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="4">
+        <v>2</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:11">
+      <c r="B61" s="4">
         <v>5005</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2</v>
-      </c>
-      <c r="K60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
-      <c r="B61" s="3">
-        <v>5005</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="C61" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="4">
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F61" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H61" s="3">
-        <v>5006</v>
-      </c>
-      <c r="I61" s="4">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="F61" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
         <v>2</v>
       </c>
       <c r="K61" s="1">
@@ -3521,29 +3513,29 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1"/>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>5006</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F62" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H62" s="3">
+        <v>104</v>
+      </c>
+      <c r="F62" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H62" s="4">
         <v>5007</v>
       </c>
-      <c r="I62" s="4">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
         <v>2</v>
       </c>
       <c r="K62" s="1">
@@ -3552,29 +3544,29 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1"/>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>5007</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4">
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H63" s="3">
+        <v>113</v>
+      </c>
+      <c r="F63" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" s="4">
         <v>5008</v>
       </c>
-      <c r="I63" s="4">
-        <v>0</v>
-      </c>
-      <c r="J63" s="3">
+      <c r="I63" s="5">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
         <v>2</v>
       </c>
       <c r="K63" s="1">
@@ -3583,29 +3575,29 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1"/>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>5008</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4">
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="3">
+        <v>104</v>
+      </c>
+      <c r="F64" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H64" s="4">
         <v>5009</v>
       </c>
-      <c r="I64" s="4">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3">
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
         <v>2</v>
       </c>
       <c r="K64" s="1">
@@ -3614,29 +3606,29 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1"/>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>5009</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F65" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H65" s="3">
+        <v>110</v>
+      </c>
+      <c r="F65" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" s="4">
         <v>5010</v>
       </c>
-      <c r="I65" s="4">
-        <v>0</v>
-      </c>
-      <c r="J65" s="3">
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
         <v>2</v>
       </c>
       <c r="K65" s="1">
@@ -3645,29 +3637,29 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1"/>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>5010</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="3">
+      <c r="D66" s="4">
         <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F66" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H66" s="3">
+        <v>104</v>
+      </c>
+      <c r="F66" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" s="4">
         <v>5011</v>
       </c>
-      <c r="I66" s="4">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="I66" s="5">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
         <v>2</v>
       </c>
       <c r="K66" s="1">
@@ -3676,29 +3668,29 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1"/>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>5011</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="3">
+      <c r="D67" s="4">
         <v>2</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H67" s="3">
+      <c r="F67" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H67" s="4">
         <v>5012</v>
       </c>
-      <c r="I67" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J67" s="3">
+      <c r="I67" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J67" s="4">
         <v>2</v>
       </c>
       <c r="K67" s="1">
@@ -3707,31 +3699,31 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1"/>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>5012</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" s="3">
+        <v>122</v>
+      </c>
+      <c r="D68" s="4">
         <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F68" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H68" s="3">
-        <v>0</v>
-      </c>
-      <c r="I68" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="J68" s="3">
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J68" s="4">
         <v>2</v>
       </c>
       <c r="K68" s="1">
@@ -3740,29 +3732,29 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1"/>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>5013</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="3">
+      <c r="D69" s="4">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H69" s="3">
+        <v>104</v>
+      </c>
+      <c r="F69" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H69" s="4">
         <v>5014</v>
       </c>
-      <c r="I69" s="4">
-        <v>0</v>
-      </c>
-      <c r="J69" s="3">
+      <c r="I69" s="5">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
         <v>2</v>
       </c>
       <c r="K69" s="1">
@@ -3771,29 +3763,29 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1"/>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <v>5014</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="3">
+      <c r="D70" s="4">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F70" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H70" s="3">
+        <v>110</v>
+      </c>
+      <c r="F70" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H70" s="4">
         <v>5015</v>
       </c>
-      <c r="I70" s="4">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
+      <c r="I70" s="5">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
         <v>2</v>
       </c>
       <c r="K70" s="1">
@@ -3802,29 +3794,29 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1"/>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>5015</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="3">
+      <c r="D71" s="4">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F71" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H71" s="3">
+        <v>104</v>
+      </c>
+      <c r="F71" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H71" s="4">
         <v>5009</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="4">
         <v>2</v>
       </c>
       <c r="K71" s="1">
@@ -3833,31 +3825,31 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1"/>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <v>5016</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D72" s="3">
+        <v>127</v>
+      </c>
+      <c r="D72" s="4">
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H72" s="3">
+        <v>110</v>
+      </c>
+      <c r="F72" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H72" s="4">
         <v>5017</v>
       </c>
-      <c r="I72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="I72" s="5">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
         <v>2</v>
       </c>
       <c r="K72" s="1">
@@ -3866,29 +3858,29 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1"/>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>5017</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="3">
+      <c r="D73" s="4">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F73" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H73" s="3">
+        <v>104</v>
+      </c>
+      <c r="F73" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H73" s="4">
         <v>5018</v>
       </c>
-      <c r="I73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="3">
+      <c r="I73" s="5">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
         <v>2</v>
       </c>
       <c r="K73" s="1">
@@ -3897,29 +3889,29 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1"/>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>5018</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="3">
+      <c r="D74" s="4">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H74" s="3">
+      <c r="F74" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H74" s="4">
         <v>5019</v>
       </c>
-      <c r="I74" s="4">
-        <v>0</v>
-      </c>
-      <c r="J74" s="3">
+      <c r="I74" s="5">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
         <v>2</v>
       </c>
       <c r="K74" s="1">
@@ -3928,29 +3920,29 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1"/>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>5019</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="3">
+      <c r="D75" s="4">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F75" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H75" s="3">
+      <c r="F75" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H75" s="4">
         <v>5020</v>
       </c>
-      <c r="I75" s="4">
-        <v>0</v>
-      </c>
-      <c r="J75" s="3">
+      <c r="I75" s="5">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
         <v>2</v>
       </c>
       <c r="K75" s="1">
@@ -3959,29 +3951,29 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1"/>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>5020</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="3">
+      <c r="D76" s="4">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F76" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H76" s="3">
+      <c r="F76" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H76" s="4">
         <v>5021</v>
       </c>
-      <c r="I76" s="4">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="I76" s="5">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
         <v>2</v>
       </c>
       <c r="K76" s="1">
@@ -3990,29 +3982,29 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1"/>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>5021</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="3">
+      <c r="D77" s="4">
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F77" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H77" s="3">
+      <c r="F77" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H77" s="4">
         <v>5022</v>
       </c>
-      <c r="I77" s="4">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
+      <c r="I77" s="5">
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
         <v>2</v>
       </c>
       <c r="K77" s="1">
@@ -4021,29 +4013,29 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1"/>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>5022</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="3">
+      <c r="D78" s="4">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H78" s="3">
+      <c r="F78" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H78" s="4">
         <v>5023</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I78" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="4">
         <v>2</v>
       </c>
       <c r="K78" s="1">
@@ -4052,29 +4044,29 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1"/>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <v>5023</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="3">
+      <c r="D79" s="4">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F79" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H79" s="3">
+        <v>131</v>
+      </c>
+      <c r="F79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H79" s="4">
         <v>5024</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="4">
         <v>2</v>
       </c>
       <c r="K79" s="1">
@@ -4083,93 +4075,90 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1"/>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <v>5024</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="3">
+      <c r="D80" s="4">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H80" s="3">
+      <c r="F80" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" s="4">
         <v>5025</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I80" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="4">
         <v>2</v>
       </c>
       <c r="K80" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
-      <c r="B81" s="3">
+    <row r="81" s="1" customFormat="1" spans="2:11">
+      <c r="B81" s="4">
         <v>5025</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="3">
+      <c r="D81" s="4">
         <v>2</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F81" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="J81" s="3">
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J81" s="4">
         <v>2</v>
       </c>
       <c r="K81" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
-      <c r="B82" s="3">
+    <row r="82" s="1" customFormat="1" spans="2:11">
+      <c r="B82" s="4">
         <v>5026</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D82" s="3">
-        <v>6</v>
+        <v>141</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F82" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H82" s="3">
-        <v>0</v>
-      </c>
-      <c r="I82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="J82" s="3">
+      <c r="H82" s="4">
+        <v>5027</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="4">
         <v>2</v>
       </c>
       <c r="K82" s="1">
@@ -4178,29 +4167,29 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1"/>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <v>5027</v>
       </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="3">
+      <c r="D83" s="4">
         <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F83" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G83" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F83" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="4" t="s">
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="4">
         <v>2</v>
       </c>
       <c r="K83" s="1">
@@ -4209,31 +4198,31 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1"/>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <v>5028</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="4">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F84" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G84" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="4">
         <v>5030</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="4">
         <v>2</v>
       </c>
       <c r="K84" s="1">
@@ -4242,31 +4231,31 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1"/>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <v>5029</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="4">
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F85" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G85" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="4">
         <v>5037</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="I85" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="4">
         <v>2</v>
       </c>
       <c r="K85" s="1">
@@ -4275,29 +4264,29 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1"/>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <v>5030</v>
       </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="3">
+      <c r="D86" s="4">
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F86" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G86" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F86" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="4">
         <v>5031</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="I86" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="4">
         <v>2</v>
       </c>
       <c r="K86" s="1">
@@ -4306,29 +4295,29 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1"/>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <v>5031</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="3">
+      <c r="D87" s="4">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F87" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="4">
         <v>5032</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="I87" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="4">
         <v>2</v>
       </c>
       <c r="K87" s="1">
@@ -4337,29 +4326,29 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1"/>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>5032</v>
       </c>
       <c r="C88" s="1"/>
-      <c r="D88" s="3">
+      <c r="D88" s="4">
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F88" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G88" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F88" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="4">
         <v>5033</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="I88" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="4">
         <v>2</v>
       </c>
       <c r="K88" s="1">
@@ -4368,29 +4357,29 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1"/>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <v>5033</v>
       </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="3">
+      <c r="D89" s="4">
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F89" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="4">
         <v>5034</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="I89" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="4">
         <v>2</v>
       </c>
       <c r="K89" s="1">
@@ -4399,29 +4388,29 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1"/>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>5034</v>
       </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="3">
+      <c r="D90" s="4">
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F90" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F90" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="4">
         <v>5035</v>
       </c>
-      <c r="I90" s="9" t="s">
+      <c r="I90" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="4">
         <v>2</v>
       </c>
       <c r="K90" s="1">
@@ -4430,62 +4419,61 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1"/>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <v>5035</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="3">
+      <c r="D91" s="4">
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F91" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" s="9" t="s">
+      <c r="F91" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="9" t="s">
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+      <c r="I91" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="4">
         <v>2</v>
       </c>
       <c r="K91" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1"/>
-      <c r="B92" s="3">
+    <row r="92" s="1" customFormat="1" spans="2:11">
+      <c r="B92" s="4">
         <v>5036</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D92" s="3">
-        <v>9</v>
+      <c r="D92" s="4">
+        <v>4</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F92" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="H92" s="3">
-        <v>0</v>
-      </c>
-      <c r="I92" s="9" t="s">
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+      <c r="I92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="4">
         <v>2</v>
       </c>
       <c r="K92" s="1">
@@ -4494,29 +4482,29 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1"/>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>5037</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="3">
+      <c r="D93" s="4">
         <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F93" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F93" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="4">
         <v>5038</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="4">
         <v>2</v>
       </c>
       <c r="K93" s="1">
@@ -4525,29 +4513,29 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1"/>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>5038</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="3">
+      <c r="D94" s="4">
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F94" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G94" s="9" t="s">
+      <c r="F94" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="4">
         <v>5039</v>
       </c>
-      <c r="I94" s="9" t="s">
+      <c r="I94" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="4">
         <v>2</v>
       </c>
       <c r="K94" s="1">
@@ -4556,29 +4544,29 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1"/>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>5039</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="3">
+      <c r="D95" s="4">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F95" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="4">
         <v>5040</v>
       </c>
-      <c r="I95" s="9" t="s">
+      <c r="I95" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="4">
         <v>2</v>
       </c>
       <c r="K95" s="1">
@@ -4587,29 +4575,29 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1"/>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>5040</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="3">
+      <c r="D96" s="4">
         <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F96" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F96" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="4">
         <v>5041</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="I96" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="4">
         <v>2</v>
       </c>
       <c r="K96" s="1">
@@ -4618,29 +4606,29 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1"/>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <v>5041</v>
       </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="3">
+      <c r="D97" s="4">
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F97" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G97" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F97" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="4">
         <v>5042</v>
       </c>
-      <c r="I97" s="9" t="s">
+      <c r="I97" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97" s="4">
         <v>2</v>
       </c>
       <c r="K97" s="1">
@@ -4649,29 +4637,29 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1"/>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <v>5042</v>
       </c>
       <c r="C98" s="1"/>
-      <c r="D98" s="3">
+      <c r="D98" s="4">
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F98" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G98" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F98" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="4">
         <v>5043</v>
       </c>
-      <c r="I98" s="9" t="s">
+      <c r="I98" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="4">
         <v>2</v>
       </c>
       <c r="K98" s="1">
@@ -4680,62 +4668,61 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1"/>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <v>5043</v>
       </c>
       <c r="C99" s="1"/>
-      <c r="D99" s="3">
+      <c r="D99" s="4">
         <v>2</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" s="9" t="s">
+      <c r="F99" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="H99" s="3">
-        <v>0</v>
-      </c>
-      <c r="I99" s="9" t="s">
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+      <c r="I99" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="4">
         <v>2</v>
       </c>
       <c r="K99" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1"/>
-      <c r="B100" s="3">
+    <row r="100" s="1" customFormat="1" spans="2:11">
+      <c r="B100" s="4">
         <v>5044</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="4">
         <v>4</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F100" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J100" s="3">
+        <v>131</v>
+      </c>
+      <c r="F100" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J100" s="4">
         <v>2</v>
       </c>
       <c r="K100" s="1">
@@ -4745,8 +4732,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="I47:I50 I45:I46 I53:I55 I33:I34 I27 I51:I52 I36:I44" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Assets/GameMain/DataTables/xlsx/Dialogue.xlsx
+++ b/Assets/GameMain/DataTables/xlsx/Dialogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="200">
   <si>
     <t>#</t>
   </si>
@@ -361,6 +361,12 @@
     <t>希望下次收到你的好消息。</t>
   </si>
   <si>
+    <t>退出ICA MessageBox</t>
+  </si>
+  <si>
+    <t>901,1,11</t>
+  </si>
+  <si>
     <t>宇航员No.6568</t>
   </si>
   <si>
@@ -551,6 +557,96 @@
   </si>
   <si>
     <t>9！</t>
+  </si>
+  <si>
+    <t>【地球插图】</t>
+  </si>
+  <si>
+    <t>2_1.1</t>
+  </si>
+  <si>
+    <t>好久没看到地球了。</t>
+  </si>
+  <si>
+    <t>要不是这次碰巧经过，下次再来这边还不知道是什么时候。</t>
+  </si>
+  <si>
+    <t>601,602</t>
+  </si>
+  <si>
+    <t>你会想家吗？</t>
+  </si>
+  <si>
+    <t>2_1.1a</t>
+  </si>
+  <si>
+    <t>你在外面执行了这么久任务，也一定很想回家吧？</t>
+  </si>
+  <si>
+    <t>呵呵，其实离我回去的日子也不远了。</t>
+  </si>
+  <si>
+    <t>真的吗？什么时候？</t>
+  </si>
+  <si>
+    <t>我还没正式提出申请，不过也快了。</t>
+  </si>
+  <si>
+    <t>你是第一个知道的，先不要告诉别人，我准备明年就退休。</t>
+  </si>
+  <si>
+    <t>603,604</t>
+  </si>
+  <si>
+    <t>为什么？</t>
+  </si>
+  <si>
+    <t>有你这样的年轻人加入，就有我这样的老人退役，这样组织才能保持活力。</t>
+  </si>
+  <si>
+    <t>903,1,25</t>
+  </si>
+  <si>
+    <t>我能理解</t>
+  </si>
+  <si>
+    <t>辉煌的成就已经过去，现在我只想回地球，多陪陪家人。</t>
+  </si>
+  <si>
+    <t>宇航员的生活就是这样吧。</t>
+  </si>
+  <si>
+    <t>这就是宇航员的工作嘛。</t>
+  </si>
+  <si>
+    <t>2_1.1b</t>
+  </si>
+  <si>
+    <t>确实，干这行就这样。只是人年纪大了就会多些挂念，比如家乡的美食。</t>
+  </si>
+  <si>
+    <t>吃太空食品太久，我都快忘记地球上那些食物的烟火气了。</t>
+  </si>
+  <si>
+    <t>总部之前在招募志愿者，试吃了很多新开发的太空食品，听说很不错，虽然我没报上名TT</t>
+  </si>
+  <si>
+    <t>估计他们是在为之后太空旅行的商业化做准备，没准还会在Alpha空间站开个餐厅呢。</t>
+  </si>
+  <si>
+    <t>Alpha空间站！据说它会成为第一个开放给公众参观的空间站呢！</t>
+  </si>
+  <si>
+    <t>真没想到啊，想当年，我也是参与建造它的工作人员之一。</t>
+  </si>
+  <si>
+    <t>哇，那可是最早的空间站啊，没想到你竟然参与过！</t>
+  </si>
+  <si>
+    <t>都是过去的事了，哈哈，也没什么值得多说的。</t>
+  </si>
+  <si>
+    <t>我们还是先看看下个任务是什么吧。</t>
   </si>
 </sst>
 </file>
@@ -558,10 +654,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="25">
@@ -587,23 +683,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,25 +725,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -652,32 +747,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,8 +778,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,14 +805,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,7 +856,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,19 +886,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,19 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,25 +922,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,31 +940,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,13 +976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,13 +1000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +1024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,17 +1050,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,11 +1102,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,16 +1119,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,15 +1147,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1059,10 +1155,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,137 +1167,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,10 +1337,13 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1566,10 +1665,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3331,7 +3430,7 @@
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>30</v>
@@ -3346,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="13">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J56" s="8">
         <v>0</v>
@@ -3355,60 +3454,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
-      <c r="B57" s="4">
-        <v>5001</v>
-      </c>
-      <c r="C57" s="4"/>
+    <row r="57" s="2" customFormat="1" spans="1:11">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8">
+        <v>1053</v>
+      </c>
+      <c r="C57" s="8"/>
       <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" s="11" t="s">
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H57" s="4">
-        <v>5002</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" s="4">
-        <v>2</v>
-      </c>
-      <c r="K57" s="1">
+      <c r="J57" s="8">
+        <v>0</v>
+      </c>
+      <c r="K57" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1"/>
       <c r="B58" s="4">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4">
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F58" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H58" s="4">
-        <v>5003</v>
-      </c>
-      <c r="I58" s="5">
-        <v>0</v>
+        <v>5002</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J58" s="4">
         <v>2</v>
@@ -3417,13 +3516,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="2:11">
+    <row r="59" spans="1:11">
+      <c r="A59" s="1"/>
       <c r="B59" s="4">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>30</v>
@@ -3432,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H59" s="4">
-        <v>0</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>108</v>
+        <v>5003</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
       </c>
       <c r="J59" s="4">
         <v>2</v>
@@ -3449,28 +3549,26 @@
     </row>
     <row r="60" s="1" customFormat="1" spans="2:11">
       <c r="B60" s="4">
-        <v>5004</v>
-      </c>
-      <c r="C60" s="4" t="s">
+        <v>5003</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="4">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="F60" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H60" s="4">
-        <v>5006</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="J60" s="4">
         <v>2</v>
@@ -3481,56 +3579,57 @@
     </row>
     <row r="61" s="1" customFormat="1" spans="2:11">
       <c r="B61" s="4">
+        <v>5004</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61" s="4">
+        <v>5006</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="4">
+        <v>2</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:11">
+      <c r="B62" s="4">
         <v>5005</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F61" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="11" t="s">
+      <c r="C62" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H61" s="4">
-        <v>0</v>
-      </c>
-      <c r="I61" s="5">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <v>2</v>
-      </c>
-      <c r="K61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
-      <c r="B62" s="4">
-        <v>5006</v>
-      </c>
-      <c r="C62" s="4"/>
       <c r="D62" s="4">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F62" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H62" s="4">
-        <v>5007</v>
+        <v>0</v>
       </c>
       <c r="I62" s="5">
         <v>0</v>
@@ -3545,23 +3644,23 @@
     <row r="63" spans="1:11">
       <c r="A63" s="1"/>
       <c r="B63" s="4">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4">
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F63" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H63" s="4">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="I63" s="5">
         <v>0</v>
@@ -3576,23 +3675,23 @@
     <row r="64" spans="1:11">
       <c r="A64" s="1"/>
       <c r="B64" s="4">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4">
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F64" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H64" s="4">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="I64" s="5">
         <v>0</v>
@@ -3607,23 +3706,23 @@
     <row r="65" spans="1:11">
       <c r="A65" s="1"/>
       <c r="B65" s="4">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F65" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H65" s="4">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="I65" s="5">
         <v>0</v>
@@ -3638,23 +3737,23 @@
     <row r="66" spans="1:11">
       <c r="A66" s="1"/>
       <c r="B66" s="4">
+        <v>5009</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H66" s="4">
         <v>5010</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="4">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F66" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H66" s="4">
-        <v>5011</v>
       </c>
       <c r="I66" s="5">
         <v>0</v>
@@ -3669,26 +3768,26 @@
     <row r="67" spans="1:11">
       <c r="A67" s="1"/>
       <c r="B67" s="4">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F67" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H67" s="4">
-        <v>5012</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>121</v>
+        <v>5011</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
       </c>
       <c r="J67" s="4">
         <v>2</v>
@@ -3700,28 +3799,26 @@
     <row r="68" spans="1:11">
       <c r="A68" s="1"/>
       <c r="B68" s="4">
+        <v>5011</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68" s="4">
         <v>5012</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="4">
-        <v>7</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F68" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="11" t="s">
+      <c r="I68" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="H68" s="4">
-        <v>0</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="J68" s="4">
         <v>2</v>
@@ -3733,14 +3830,16 @@
     <row r="69" spans="1:11">
       <c r="A69" s="1"/>
       <c r="B69" s="4">
-        <v>5013</v>
-      </c>
-      <c r="C69" s="1"/>
+        <v>5012</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D69" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F69" s="4" t="b">
         <v>0</v>
@@ -3749,10 +3848,10 @@
         <v>125</v>
       </c>
       <c r="H69" s="4">
-        <v>5014</v>
-      </c>
-      <c r="I69" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="J69" s="4">
         <v>2</v>
@@ -3764,23 +3863,23 @@
     <row r="70" spans="1:11">
       <c r="A70" s="1"/>
       <c r="B70" s="4">
-        <v>5014</v>
+        <v>5013</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="4">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F70" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H70" s="4">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="I70" s="5">
         <v>0</v>
@@ -3795,26 +3894,26 @@
     <row r="71" spans="1:11">
       <c r="A71" s="1"/>
       <c r="B71" s="4">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="4">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F71" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H71" s="4">
-        <v>5009</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>32</v>
+        <v>5015</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0</v>
       </c>
       <c r="J71" s="4">
         <v>2</v>
@@ -3826,16 +3925,14 @@
     <row r="72" spans="1:11">
       <c r="A72" s="1"/>
       <c r="B72" s="4">
-        <v>5016</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>5015</v>
+      </c>
+      <c r="C72" s="1"/>
       <c r="D72" s="4">
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F72" s="4" t="b">
         <v>0</v>
@@ -3844,10 +3941,10 @@
         <v>128</v>
       </c>
       <c r="H72" s="4">
-        <v>5017</v>
-      </c>
-      <c r="I72" s="5">
-        <v>0</v>
+        <v>5009</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J72" s="4">
         <v>2</v>
@@ -3859,23 +3956,25 @@
     <row r="73" spans="1:11">
       <c r="A73" s="1"/>
       <c r="B73" s="4">
+        <v>5016</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H73" s="4">
         <v>5017</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="4">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F73" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H73" s="4">
-        <v>5018</v>
       </c>
       <c r="I73" s="5">
         <v>0</v>
@@ -3890,23 +3989,23 @@
     <row r="74" spans="1:11">
       <c r="A74" s="1"/>
       <c r="B74" s="4">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="4">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F74" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H74" s="4">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="I74" s="5">
         <v>0</v>
@@ -3921,14 +4020,14 @@
     <row r="75" spans="1:11">
       <c r="A75" s="1"/>
       <c r="B75" s="4">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="4">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="F75" s="4" t="b">
         <v>0</v>
@@ -3937,7 +4036,7 @@
         <v>132</v>
       </c>
       <c r="H75" s="4">
-        <v>5020</v>
+        <v>5019</v>
       </c>
       <c r="I75" s="5">
         <v>0</v>
@@ -3952,7 +4051,7 @@
     <row r="76" spans="1:11">
       <c r="A76" s="1"/>
       <c r="B76" s="4">
-        <v>5020</v>
+        <v>5019</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="4">
@@ -3968,7 +4067,7 @@
         <v>134</v>
       </c>
       <c r="H76" s="4">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="I76" s="5">
         <v>0</v>
@@ -3983,23 +4082,23 @@
     <row r="77" spans="1:11">
       <c r="A77" s="1"/>
       <c r="B77" s="4">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="4">
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F77" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H77" s="4">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="I77" s="5">
         <v>0</v>
@@ -4014,7 +4113,7 @@
     <row r="78" spans="1:11">
       <c r="A78" s="1"/>
       <c r="B78" s="4">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="4">
@@ -4027,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H78" s="4">
-        <v>5023</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>32</v>
+        <v>5022</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0</v>
       </c>
       <c r="J78" s="4">
         <v>2</v>
@@ -4045,23 +4144,23 @@
     <row r="79" spans="1:11">
       <c r="A79" s="1"/>
       <c r="B79" s="4">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="4">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="F79" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H79" s="4">
-        <v>5024</v>
+        <v>5023</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>32</v>
@@ -4076,55 +4175,57 @@
     <row r="80" spans="1:11">
       <c r="A80" s="1"/>
       <c r="B80" s="4">
-        <v>5024</v>
+        <v>5023</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="4">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" s="4">
+        <v>5024</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="4">
+        <v>2</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1"/>
+      <c r="B81" s="4">
+        <v>5024</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H80" s="4">
+      <c r="F81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H81" s="4">
         <v>5025</v>
       </c>
-      <c r="I80" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="4">
-        <v>2</v>
-      </c>
-      <c r="K80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="2:11">
-      <c r="B81" s="4">
-        <v>5025</v>
-      </c>
-      <c r="D81" s="4">
-        <v>2</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F81" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H81" s="4">
-        <v>0</v>
-      </c>
       <c r="I81" s="5" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="J81" s="4">
         <v>2</v>
@@ -4135,44 +4236,42 @@
     </row>
     <row r="82" s="1" customFormat="1" spans="2:11">
       <c r="B82" s="4">
+        <v>5025</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J82" s="4">
+        <v>2</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:11">
+      <c r="B83" s="4">
         <v>5026</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F82" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H82" s="4">
-        <v>5027</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82" s="4">
-        <v>2</v>
-      </c>
-      <c r="K82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
-      <c r="B83" s="4">
-        <v>5027</v>
-      </c>
-      <c r="C83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="D83" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>133</v>
@@ -4180,14 +4279,14 @@
       <c r="F83" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G83" s="11" t="s">
-        <v>143</v>
+      <c r="G83" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="H83" s="4">
-        <v>0</v>
+        <v>5027</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="J83" s="4">
         <v>2</v>
@@ -4199,28 +4298,26 @@
     <row r="84" spans="1:11">
       <c r="A84" s="1"/>
       <c r="B84" s="4">
-        <v>5028</v>
-      </c>
-      <c r="C84" s="1" t="s">
+        <v>5027</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="4">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D84" s="4">
-        <v>1</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F84" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G84" s="11" t="s">
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="I84" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="H84" s="4">
-        <v>5030</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="J84" s="4">
         <v>2</v>
@@ -4232,7 +4329,7 @@
     <row r="85" spans="1:11">
       <c r="A85" s="1"/>
       <c r="B85" s="4">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>147</v>
@@ -4241,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F85" s="4" t="b">
         <v>0</v>
@@ -4250,9 +4347,9 @@
         <v>148</v>
       </c>
       <c r="H85" s="4">
-        <v>5037</v>
-      </c>
-      <c r="I85" s="14" t="s">
+        <v>5030</v>
+      </c>
+      <c r="I85" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J85" s="4">
@@ -4265,9 +4362,11 @@
     <row r="86" spans="1:11">
       <c r="A86" s="1"/>
       <c r="B86" s="4">
-        <v>5030</v>
-      </c>
-      <c r="C86" s="1"/>
+        <v>5029</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D86" s="4">
         <v>1</v>
       </c>
@@ -4277,11 +4376,11 @@
       <c r="F86" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G86" s="14" t="s">
-        <v>149</v>
+      <c r="G86" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="H86" s="4">
-        <v>5031</v>
+        <v>5037</v>
       </c>
       <c r="I86" s="14" t="s">
         <v>32</v>
@@ -4296,23 +4395,23 @@
     <row r="87" spans="1:11">
       <c r="A87" s="1"/>
       <c r="B87" s="4">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="4">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F87" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H87" s="4">
-        <v>5032</v>
+        <v>5031</v>
       </c>
       <c r="I87" s="14" t="s">
         <v>32</v>
@@ -4327,7 +4426,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="1"/>
       <c r="B88" s="4">
-        <v>5032</v>
+        <v>5031</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="4">
@@ -4340,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H88" s="4">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="I88" s="14" t="s">
         <v>32</v>
@@ -4358,23 +4457,23 @@
     <row r="89" spans="1:11">
       <c r="A89" s="1"/>
       <c r="B89" s="4">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="4">
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F89" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H89" s="4">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="I89" s="14" t="s">
         <v>32</v>
@@ -4389,7 +4488,7 @@
     <row r="90" spans="1:11">
       <c r="A90" s="1"/>
       <c r="B90" s="4">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="4">
@@ -4402,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H90" s="4">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="I90" s="14" t="s">
         <v>32</v>
@@ -4420,74 +4519,74 @@
     <row r="91" spans="1:11">
       <c r="A91" s="1"/>
       <c r="B91" s="4">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H91" s="4">
+        <v>5035</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" s="4">
+        <v>2</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1"/>
+      <c r="B92" s="4">
+        <v>5035</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="4">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F91" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H91" s="4">
-        <v>0</v>
-      </c>
-      <c r="I91" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="J91" s="4">
-        <v>2</v>
-      </c>
-      <c r="K91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="2:11">
-      <c r="B92" s="4">
+      <c r="F92" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J92" s="4">
+        <v>2</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="2:11">
+      <c r="B93" s="4">
         <v>5036</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D92" s="4">
+      <c r="C93" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D93" s="4">
         <v>4</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F92" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H92" s="4">
-        <v>0</v>
-      </c>
-      <c r="I92" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J92" s="4">
-        <v>2</v>
-      </c>
-      <c r="K92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1"/>
-      <c r="B93" s="4">
-        <v>5037</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="4">
-        <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>133</v>
@@ -4499,10 +4598,10 @@
         <v>159</v>
       </c>
       <c r="H93" s="4">
-        <v>5038</v>
+        <v>0</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="J93" s="4">
         <v>2</v>
@@ -4514,23 +4613,23 @@
     <row r="94" spans="1:11">
       <c r="A94" s="1"/>
       <c r="B94" s="4">
-        <v>5038</v>
+        <v>5037</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="4">
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F94" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H94" s="4">
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="I94" s="14" t="s">
         <v>32</v>
@@ -4545,23 +4644,23 @@
     <row r="95" spans="1:11">
       <c r="A95" s="1"/>
       <c r="B95" s="4">
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="4">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="F95" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H95" s="4">
-        <v>5040</v>
+        <v>5039</v>
       </c>
       <c r="I95" s="14" t="s">
         <v>32</v>
@@ -4576,7 +4675,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="1"/>
       <c r="B96" s="4">
-        <v>5040</v>
+        <v>5039</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="4">
@@ -4589,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H96" s="4">
-        <v>5041</v>
+        <v>5040</v>
       </c>
       <c r="I96" s="14" t="s">
         <v>32</v>
@@ -4607,23 +4706,23 @@
     <row r="97" spans="1:11">
       <c r="A97" s="1"/>
       <c r="B97" s="4">
-        <v>5041</v>
+        <v>5040</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="4">
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F97" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H97" s="4">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="I97" s="14" t="s">
         <v>32</v>
@@ -4638,7 +4737,7 @@
     <row r="98" spans="1:11">
       <c r="A98" s="1"/>
       <c r="B98" s="4">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="4">
@@ -4651,10 +4750,10 @@
         <v>0</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H98" s="4">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="I98" s="14" t="s">
         <v>32</v>
@@ -4669,63 +4768,799 @@
     <row r="99" spans="1:11">
       <c r="A99" s="1"/>
       <c r="B99" s="4">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F99" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H99" s="4">
+        <v>5043</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J99" s="4">
+        <v>2</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1"/>
+      <c r="B100" s="4">
+        <v>5043</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="4">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="H99" s="4">
-        <v>0</v>
-      </c>
-      <c r="I99" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="J99" s="4">
-        <v>2</v>
-      </c>
-      <c r="K99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="2:11">
-      <c r="B100" s="4">
+      <c r="F100" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J100" s="4">
+        <v>2</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="2:11">
+      <c r="B101" s="4">
         <v>5044</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D100" s="4">
+      <c r="C101" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" s="4">
         <v>4</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F100" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H100" s="4">
-        <v>0</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J100" s="4">
-        <v>2</v>
-      </c>
-      <c r="K100" s="1">
+      <c r="E101" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F101" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="J101" s="4">
+        <v>2</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12">
+      <c r="B102">
+        <v>6001</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>135</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>170</v>
+      </c>
+      <c r="H102">
+        <v>6002</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103">
+        <v>6002</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>172</v>
+      </c>
+      <c r="H103">
+        <v>6003</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104">
+        <v>6003</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>173</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105">
+        <v>6010</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>133</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>175</v>
+      </c>
+      <c r="H105">
+        <v>6011</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106">
+        <v>6011</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>133</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>177</v>
+      </c>
+      <c r="H106">
+        <v>6012</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107">
+        <v>6012</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>135</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H107">
+        <v>6013</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108">
+        <v>6013</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>133</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>179</v>
+      </c>
+      <c r="H108">
+        <v>6014</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109">
+        <v>6014</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>135</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>180</v>
+      </c>
+      <c r="H109">
+        <v>6015</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110">
+        <v>6015</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>181</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111">
+        <v>6016</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>133</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>183</v>
+      </c>
+      <c r="H111">
+        <v>6017</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" s="2" customFormat="1" spans="2:11">
+      <c r="B112" s="2">
+        <v>6017</v>
+      </c>
+      <c r="D112" s="2">
+        <v>4</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J112" s="2">
+        <v>2</v>
+      </c>
+      <c r="K112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113">
+        <v>6018</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>133</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>186</v>
+      </c>
+      <c r="H113">
+        <v>6019</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" s="2" customFormat="1" spans="2:11">
+      <c r="B114" s="2">
+        <v>6019</v>
+      </c>
+      <c r="D114" s="2">
+        <v>4</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J114" s="2">
+        <v>2</v>
+      </c>
+      <c r="K114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115">
+        <v>6050</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>133</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>188</v>
+      </c>
+      <c r="H115">
+        <v>6051</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J115">
+        <v>2</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116">
+        <v>6051</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>133</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>189</v>
+      </c>
+      <c r="H116">
+        <v>6052</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J116">
+        <v>2</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117">
+        <v>6052</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>135</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>191</v>
+      </c>
+      <c r="H117">
+        <v>6053</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118">
+        <v>6053</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>192</v>
+      </c>
+      <c r="H118">
+        <v>6054</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119">
+        <v>6054</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>133</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>193</v>
+      </c>
+      <c r="H119">
+        <v>6055</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120">
+        <v>6055</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>194</v>
+      </c>
+      <c r="H120">
+        <v>6056</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J120">
+        <v>2</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121">
+        <v>6056</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>133</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>195</v>
+      </c>
+      <c r="H121">
+        <v>6057</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122">
+        <v>6057</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>135</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>196</v>
+      </c>
+      <c r="H122">
+        <v>6058</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123">
+        <v>6058</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>133</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>197</v>
+      </c>
+      <c r="H123">
+        <v>6059</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J123">
+        <v>2</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124">
+        <v>6059</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>135</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>198</v>
+      </c>
+      <c r="H124">
+        <v>6060</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125">
+        <v>6060</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>199</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
         <v>0</v>
       </c>
     </row>
